--- a/data/processed/mobile_participants_younger.xlsx
+++ b/data/processed/mobile_participants_younger.xlsx
@@ -474,8 +474,10 @@
       <c r="A2" t="n">
         <v>2012</v>
       </c>
-      <c r="B2" t="n">
-        <v>2029</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -492,19 +494,25 @@
           <t>Dutch-speaking Adults</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2011</v>
       </c>
-      <c r="B3" t="n">
-        <v>2443</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -521,17 +529,23 @@
           <t>American Adults</t>
         </is>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
-        <v>18520</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18520</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -549,16 +563,20 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>1</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2012</v>
       </c>
-      <c r="B5" t="n">
-        <v>3396</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -567,19 +585,25 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2016</v>
       </c>
-      <c r="B6" t="n">
-        <v>4689</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -597,16 +621,20 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>1</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2012</v>
       </c>
-      <c r="B7" t="n">
-        <v>2508</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -624,8 +652,10 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>1</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -684,8 +714,10 @@
       <c r="A10" t="n">
         <v>2015</v>
       </c>
-      <c r="B10" t="n">
-        <v>5535</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5535</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -702,19 +734,25 @@
           <t>Norway Adults</t>
         </is>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2014</v>
       </c>
-      <c r="B11" t="n">
-        <v>1721</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -732,16 +770,20 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2012</v>
       </c>
-      <c r="B12" t="n">
-        <v>947</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -758,11 +800,15 @@
           <t>Dutch Internet User (18+)</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
   </sheetData>
